--- a/docs/Logistics-Process-Screens.xlsx
+++ b/docs/Logistics-Process-Screens.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RND\DC\Github\Hyperledger\Fabric\Project-HLF-Logistics\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED50193-FDE6-4B06-94EE-CE30A585A559}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -94,12 +100,63 @@
   </si>
   <si>
     <t>track order can be with booking no or RWB</t>
+  </si>
+  <si>
+    <t>Manuf</t>
+  </si>
+  <si>
+    <t>AddShipping</t>
+  </si>
+  <si>
+    <t>AddShippingPackages</t>
+  </si>
+  <si>
+    <t>RemoveShippingPackages</t>
+  </si>
+  <si>
+    <t>AddTransportOrder</t>
+  </si>
+  <si>
+    <t>RemoveTransportOrder</t>
+  </si>
+  <si>
+    <t>ConfirmTransportOrder</t>
+  </si>
+  <si>
+    <t>RejectTransportOrder</t>
+  </si>
+  <si>
+    <t>DriverAcceptRejectPackage</t>
+  </si>
+  <si>
+    <t>PickupTransportOrder</t>
+  </si>
+  <si>
+    <t>At source</t>
+  </si>
+  <si>
+    <t>DeliverTransportOrder</t>
+  </si>
+  <si>
+    <t>At Destination</t>
+  </si>
+  <si>
+    <t>ConfirmsDeliveryOfShippingOrder</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>ShippingOrderDetail</t>
+  </si>
+  <si>
+    <t>TrackPackage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,6 +200,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -191,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +284,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,6 +336,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,23 +528,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -464,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -481,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -498,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -515,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -532,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -549,7 +643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -569,7 +663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -589,7 +683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -606,7 +700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -633,24 +727,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
